--- a/results/RandomForestClassifier_randomsearch-estimator_df.xlsx
+++ b/results/RandomForestClassifier_randomsearch-estimator_df.xlsx
@@ -507,7 +507,7 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f776b197a60&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98e35edc70&gt;),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=1,
                                         max_features='log2', min_samples_leaf=2,
@@ -517,7 +517,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f776b0e8880&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f8fac0af3d0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -566,7 +566,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f78564dcb20&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f98e0da3250&gt;),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=1,
                                         min_samples_leaf=10,
@@ -576,7 +576,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f776b0f68b0&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 10, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9864250f40&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 10, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -615,7 +615,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f77640a35e0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f8fac269d00&gt;),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=2,
                                         max_features='log2', min_samples_leaf=8,
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f776b6d0640&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 6, 'model__min_samples_leaf': 8, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f90f8024af0&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 6, 'model__min_samples_leaf': 8, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -664,7 +664,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f77640a37f0&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f991774a280&gt;),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=2,
                                         max_features='log2',
@@ -675,7 +675,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f7763cdf4c0&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 6, 'model__min_samples_leaf': 11, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f8fac0c4b20&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 6, 'model__min_samples_leaf': 11, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -714,7 +714,7 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f7764080190&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f90f80d3e20&gt;),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=2,
                                         max_features='log2', min_samples_leaf=9,
@@ -723,7 +723,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f7763cf6d90&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 2, 'model__min_samples_leaf': 9, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f8f6c6adca0&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 2, 'model__min_samples_leaf': 9, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">

--- a/results/RandomForestClassifier_randomsearch-estimator_df.xlsx
+++ b/results/RandomForestClassifier_randomsearch-estimator_df.xlsx
@@ -507,17 +507,18 @@
                                                    'PeakV_V', 'RT_HR', 'RT_V',
                                                    'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e35edc70&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5ae8129b50&gt;),
                 ('model',
-                 RandomForestClassifier(class_weight='balanced', max_depth=1,
-                                        max_features='log2', min_samples_leaf=2,
-                                        min_samples_split=3, n_estimators=200,
+                 RandomForestClassifier(class_weight='balanced', max_depth=2,
+                                        max_features='log2',
+                                        min_samples_leaf=11,
+                                        min_samples_split=4, n_estimators=50,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f8fac0af3d0&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5ac06f1c70&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
                   transformers=[('StandardScaler', StandardScaler(),
                                  ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
                                   'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
@@ -527,11 +528,11 @@
                                   'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
                                   'Delta_RT', 'FullPath_HR', 'FullPath_V',
                                   'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
-                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 200, 'model__min_samples_split': 3, 'model__min_samples_leaf': 2, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': 'balanced'}</t>
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 50, 'model__min_samples_split': 4, 'model__min_samples_leaf': 11, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.575741181501378</v>
+        <v>0.7172927353452996</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -539,22 +540,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6900503070862122</v>
+        <v>0.7957935852548795</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4999999999999998</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 1 1 1 0 1 0 0 0 1 0 1 1 0 0]</t>
+          <t>[1 1 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[0 1 1 1 1 0 1 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 1]</t>
+          <t>[0 0 0 1 0 1 1 1 1 0 0 1 1 0 1 0 1 1 0 0 1 1 1 0]</t>
         </is>
       </c>
     </row>
@@ -564,23 +565,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f98e0da3250&gt;),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=1,
-                                        min_samples_leaf=10,
-                                        min_samples_split=5, n_estimators=50,
+                                        max_features='log2',
+                                        min_samples_leaf=11,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f9864250f40&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 5, 'model__min_samples_leaf': 10, 'model__max_features': 'sqrt', 'model__max_depth': 1, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 2, 'model__min_samples_leaf': 11, 'model__max_features': 'log2', 'model__max_depth': 1, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.5701650866296175</v>
+        <v>0.6255785116903707</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -591,19 +590,19 @@
         <v>69</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6673021168434011</v>
+        <v>0.774298173176446</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5034965034965034</v>
+        <v>0.3760869565217391</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 0 1 1 1 0 1 0 1 0 1 0 1 1 0 1 1 1]</t>
+          <t>[0 1 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 1 0 0 1 0]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 0 0 1 0 1 1 1 1 0 0 1 0 1 1 1 0 0 0]</t>
+          <t>[0 1 1 1 0 1 0 1 0 0 1 1 1 0 0 1 0 0 1 0 0 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -613,23 +612,52 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
+          <t>Pipeline(steps=[('scaler',
+                 ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                                   transformers=[('RobustScaler',
+                                                  RobustScaler(),
+                                                  ['AE_HR', 'AE_V',
+                                                   'AbsOffAxis_HR',
+                                                   'AbsOffAxis_V',
+                                                   'AbsOnAxis_HR',
+                                                   'AbsOnAxis_V', 'BallPath_HR',
+                                                   'BallPath_V', 'CMT_HR',
+                                                   'CMT_V', 'Corrective_HR',
+                                                   'Corrective_V', 'Delta_AE',
+                                                   'Delta_Fullpath', 'Delta_MT',
+                                                   'Delta_OffAxis',
+                                                   'Delta_OnAxis', 'Delta...
+                                                   'Delta_RT', 'FullPath_HR',
+                                                   'FullPath_V', 'MT_HR',
+                                                   'MT_V', 'PeakV_HR',
+                                                   'PeakV_V', 'RT_HR', 'RT_V',
+                                                   'TMT_HR', 'TMT_V', 'VE_HR', ...])])),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f8fac269d00&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5ac06f11c0&gt;),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=2,
-                                        max_features='log2', min_samples_leaf=8,
-                                        min_samples_split=6,
+                                        max_features='log2', min_samples_leaf=5,
+                                        min_samples_split=3, n_estimators=50,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f90f8024af0&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 6, 'model__min_samples_leaf': 8, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5be7cf8d00&gt;, 'scaler': ColumnTransformer(n_jobs=-1, remainder='passthrough',
+                  transformers=[('RobustScaler', RobustScaler(),
+                                 ['AE_HR', 'AE_V', 'AbsOffAxis_HR',
+                                  'AbsOffAxis_V', 'AbsOnAxis_HR', 'AbsOnAxis_V',
+                                  'BallPath_HR', 'BallPath_V', 'CMT_HR',
+                                  'CMT_V', 'Corrective_HR', 'Corrective_V',
+                                  'Delta_AE', 'Delta_Fullpath', 'Delta_MT',
+                                  'Delta_OffAxis', 'Delta_OnAxis', 'Delta_PV',
+                                  'Delta_RT', 'FullPath_HR', 'FullPath_V',
+                                  'MT_HR', 'MT_V', 'PeakV_HR', 'PeakV_V',
+                                  'RT_HR', 'RT_V', 'TMT_HR', 'TMT_V', 'VE_HR', ...])]), 'model__n_estimators': 50, 'model__min_samples_split': 3, 'model__min_samples_leaf': 5, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.5672377531483737</v>
+        <v>0.6258702435970575</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -640,19 +668,19 @@
         <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7849462365591398</v>
+        <v>0.7740362467837439</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5862470862470862</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0 0 1 0 0 1 0 1 1 1 1 1 1 1 1 0 0 0 1 0 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 1 0 0 1 1 1]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 0 1 1 1 1 1 0 1 0 1 1 1 0 0 0 0 1 0 0]</t>
+          <t>[0 0 0 1 1 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 1 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -662,24 +690,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pipeline(steps=[('scaler', None),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f991774a280&gt;),
+          <t>Pipeline(steps=[('scaler', None), ('selector', None),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=2,
-                                        max_features='log2',
-                                        min_samples_leaf=11,
-                                        min_samples_split=6,
+                                        min_samples_leaf=4,
+                                        min_samples_split=10, n_estimators=50,
                                         random_state=42))])</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f8fac0c4b20&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 6, 'model__min_samples_leaf': 11, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 10, 'model__min_samples_leaf': 4, 'model__max_features': 'sqrt', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.6070017275466192</v>
+        <v>0.5931780431470833</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -687,22 +712,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7325184543503676</v>
+        <v>0.8707576894223557</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5572916666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 1 1 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 0 1]</t>
+          <t>[1 0 1 0 0 0 1 1 1 1 1 1 1 0 0 0 0 0 0 0 1 1 0 0]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[1 0 1 0 0 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1]</t>
+          <t>[0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 1 1 1 0 1 1 0 1]</t>
         </is>
       </c>
     </row>
@@ -714,20 +739,20 @@
         <is>
           <t>Pipeline(steps=[('scaler', None),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f90f80d3e20&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7f5ac06f1e20&gt;),
                 ('model',
                  RandomForestClassifier(class_weight='balanced', max_depth=2,
-                                        max_features='log2', min_samples_leaf=9,
-                                        random_state=42))])</t>
+                                        min_samples_leaf=9, min_samples_split=7,
+                                        n_estimators=50, random_state=42))])</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f8f6c6adca0&gt;, 'scaler': None, 'model__n_estimators': 100, 'model__min_samples_split': 2, 'model__min_samples_leaf': 9, 'model__max_features': 'log2', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f5ac04252b0&gt;, 'scaler': None, 'model__n_estimators': 50, 'model__min_samples_split': 7, 'model__min_samples_leaf': 9, 'model__max_features': 'sqrt', 'model__max_depth': 2, 'model__class_weight': 'balanced'}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.611299992838558</v>
+        <v>0.6015715930320857</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -738,19 +763,19 @@
         <v>89</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7862649624670318</v>
+        <v>0.7850457063849681</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5</v>
+        <v>0.5648148148148149</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[1 0 1 0 1 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0]</t>
+          <t>[1 0 1 0 1 1 0 0 0 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[0 0 1 1 0 0 0 1 1 1 1 1 1 1 1 1 0 0 0 1 0 1 0 1]</t>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 1 1]</t>
         </is>
       </c>
     </row>
